--- a/Injections/Injections_Results/Inj_results_2022-06-20.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7578F5-8186-3C4E-A102-E05DF1F55DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BC6F7D-A086-3B44-93CB-4AC35738C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>078, 084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of problems with our experiment on this day. </t>
   </si>
 </sst>
 </file>
@@ -481,118 +484,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>44732</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44732</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.48958333333333331</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.48958333333333331</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -601,7 +598,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -610,48 +607,57 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>5.3599999999999994</v>
-      </c>
-      <c r="E19">
-        <v>4.335</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="E20">
+        <v>4.335</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>127103</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>77120</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Injections/Injections_Results/Inj_results_2022-06-20.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-06-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BC6F7D-A086-3B44-93CB-4AC35738C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAC282C-E0C1-4941-929A-5DCDFD64DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
+    <workbookView xWindow="9160" yWindow="1800" windowWidth="27640" windowHeight="16940" xr2:uid="{B537B67D-4336-9741-9AE0-B632B4F45081}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Methane_nu</t>
   </si>
   <si>
-    <t>Average k600 @xn10</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -123,13 +120,43 @@
   </si>
   <si>
     <t xml:space="preserve">Lots of problems with our experiment on this day. </t>
+  </si>
+  <si>
+    <t>Background data @ -10m</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave pressure kpa (air)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave flux um/m2</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +169,21 @@
       <color rgb="FF000000"/>
       <name val="Monaco"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,12 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,15 +528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AACA0-6003-0B4F-96CA-34FCF7DDAFB1}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
+      <c r="A1" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -508,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -518,12 +567,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -571,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -643,22 +692,76 @@
         <v>77120</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>8.1940000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>7.0049999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
